--- a/BB_Vegetarian Meal Prep.xlsx
+++ b/BB_Vegetarian Meal Prep.xlsx
@@ -112,10 +112,10 @@
     <t>1/4 tsp  sriracha ($0.02)</t>
   </si>
   <si>
-    <t>Add the cottage cheese, chopped cucumber, and crab meat to a bowl. Top with everything bagel seasoning and a light drizzle of sriracha.</t>
-  </si>
-  <si>
-    <t>Serve immediately, or refrigerate until ready to eat, up to four days.</t>
+    <t>1. Add the cottage cheese, chopped cucumber, and crab meat to a bowl. Top with everything bagel seasoning and a light drizzle of sriracha.</t>
+  </si>
+  <si>
+    <t>2. Serve immediately, or refrigerate until ready to eat, up to four days.</t>
   </si>
   <si>
     <t>Freezer Breakfast Burritos</t>
@@ -175,28 +175,28 @@
     <t>1  handful chopped parsley ($0.20)</t>
   </si>
   <si>
-    <t>Preheat the oven to 400ºF. Line a large baking sheet with parchment paper.</t>
-  </si>
-  <si>
-    <t>In a small bowl or jar combine the ingredients for the vinaigrette (olive oil, red wine vinegar, mustard, garlic powder, dried oregano, smoked paprika, salt, pepper, and sugar). Whisk the ingredients together or close the jar and shake until combined. Set the vinaigrette aside.</t>
-  </si>
-  <si>
-    <t>Slice the smoked sausage into 1/2-inch medallions. Cut the broccoli into small florets. Dice the bell pepper and onion into 1-inch pieces. Place the sausage, broccoli, bell pepper, and onion onto the baking sheet.</t>
-  </si>
-  <si>
-    <t>Drizzle 2 Tbsp of the vinaigrette over the sausage and vegetables and toss to coat.</t>
-  </si>
-  <si>
-    <t>Roast the vegetables in the fully preheated oven for 35-40 minutes, or until they're browned on the edges, stirring once half way through.</t>
-  </si>
-  <si>
-    <t>While the sausage and vegetables are roasting, cook the rice. Add the rice and 2 cups water to a sauce pot. Place a lid on the pot and bring it up to a boil over high heat. Once boiling, turn the heat down to low and let simmer for 15 minutes. After 15 minutes, turn the heat off and let it rest, undisturbed, lid in place, for an additional 5 minutes. Fluff with a fork just before serving.</t>
-  </si>
-  <si>
-    <t>After the sausage and vegetables have finished roasting, add half of the remaining vinaigrette and toss to coat. Season with an extra pinch of salt and pepper if needed.</t>
-  </si>
-  <si>
-    <t>To serving, add about 3/4 cup rice to each bowl or container along with 1/4 of the roasted sausage and vegetables. Drizzle another spoonful of the vinaigrette over top, then finish with a sprinkle of fresh parsley.</t>
+    <t>1. Preheat the oven to 400ºF. Line a large baking sheet with parchment paper.</t>
+  </si>
+  <si>
+    <t>2. In a small bowl or jar combine the ingredients for the vinaigrette (olive oil, red wine vinegar, mustard, garlic powder, dried oregano, smoked paprika, salt, pepper, and sugar). Whisk the ingredients together or close the jar and shake until combined. Set the vinaigrette aside.</t>
+  </si>
+  <si>
+    <t>3. Slice the smoked sausage into 1/2-inch medallions. Cut the broccoli into small florets. Dice the bell pepper and onion into 1-inch pieces. Place the sausage, broccoli, bell pepper, and onion onto the baking sheet.</t>
+  </si>
+  <si>
+    <t>4. Drizzle 2 Tbsp of the vinaigrette over the sausage and vegetables and toss to coat.</t>
+  </si>
+  <si>
+    <t>5. Roast the vegetables in the fully preheated oven for 35-40 minutes, or until they're browned on the edges, stirring once half way through.</t>
+  </si>
+  <si>
+    <t>6. While the sausage and vegetables are roasting, cook the rice. Add the rice and 2 cups water to a sauce pot. Place a lid on the pot and bring it up to a boil over high heat. Once boiling, turn the heat down to low and let simmer for 15 minutes. After 15 minutes, turn the heat off and let it rest, undisturbed, lid in place, for an additional 5 minutes. Fluff with a fork just before serving.</t>
+  </si>
+  <si>
+    <t>7. After the sausage and vegetables have finished roasting, add half of the remaining vinaigrette and toss to coat. Season with an extra pinch of salt and pepper if needed.</t>
+  </si>
+  <si>
+    <t>8. To serving, add about 3/4 cup rice to each bowl or container along with 1/4 of the roasted sausage and vegetables. Drizzle another spoonful of the vinaigrette over top, then finish with a sprinkle of fresh parsley.</t>
   </si>
   <si>
     <t>Cottage Cheese Breakfast Bowls 6 Ways</t>
@@ -229,34 +229,34 @@
     <t>8 large flour tortillas (burrito size) ($1.39)</t>
   </si>
   <si>
-    <t>Begin by preparing all of the filling ingredients for the breakfast burritos. Shred the cheddar, if not purchased pre-shredded.</t>
-  </si>
-  <si>
-    <t>Dice the onion and bell pepper. Add the onion and bell pepper to a large skillet with ½ Tbsp butter and sauté over medium heat until the onions are soft and translucent (about 5 minutes). Season the bell pepper and onion with a pinch of salt and pepper. Transfer the bell pepper and onion to a bowl.</t>
-  </si>
-  <si>
-    <t>Dice the ham, then add it to the skillet with another ½ Tbp butter. Sauté the ham over medium heat until it is browned (about 5 minutes). Transfer the ham to a separate bowl and clean the skillet.</t>
-  </si>
-  <si>
-    <t>Crack 12 eggs into a bowl and lightly whisk. Add the last tablespoon butter to the skillet and heat over medium. Once the skillet is hot, spread the butter to coat the surface, then pour in the whisked eggs.</t>
-  </si>
-  <si>
-    <t>Push the eggs in toward the center of the skillet as they set on the bottom, until most of the eggs have set, but the eggs still look moist. Do not over cook the eggs or they'll become dry. Season the eggs with a pinch of salt and pepper.</t>
-  </si>
-  <si>
-    <t>To assemble the burritos, add a scoop of scrambled eggs to the middle of each tortilla, then top with a scoop of cooked bell pepper and onion, a handful of cheese, and some of the cooked ham.</t>
-  </si>
-  <si>
-    <t>To roll the burritos, first fold the tortilla up from the bottom, then fold in the sides, and then finish rolling the burrito up until it has closed. Wrap each burrito in parchment paper using the same folding and rolling method (bottom up, sides in, finish rolling up). Label each burrito on the parchment paper or on masking tape</t>
-  </si>
-  <si>
-    <t>Transfer the wrapped burritos to freezer bags, label and date the bags, then place in the freezer.</t>
-  </si>
-  <si>
-    <t>Transfer the breakfast burrito to the refrigerator the day before to thaw. Once thawed, microwave on high for 1-2 minutes, or heat in a skillet over medium-low, about 5 minutes on each side, or until the tortilla is crispy and the insides are warm.</t>
-  </si>
-  <si>
-    <t>To reheat from frozen, use the microwave's defrost setting for about 5 minutes, then microwave on high for 1-2 minutes, or until heated through.</t>
+    <t>1. Begin by preparing all of the filling ingredients for the breakfast burritos. Shred the cheddar, if not purchased pre-shredded.</t>
+  </si>
+  <si>
+    <t>2. Dice the onion and bell pepper. Add the onion and bell pepper to a large skillet with ½ Tbsp butter and sauté over medium heat until the onions are soft and translucent (about 5 minutes). Season the bell pepper and onion with a pinch of salt and pepper. Transfer the bell pepper and onion to a bowl.</t>
+  </si>
+  <si>
+    <t>3. Dice the ham, then add it to the skillet with another ½ Tbp butter. Sauté the ham over medium heat until it is browned (about 5 minutes). Transfer the ham to a separate bowl and clean the skillet.</t>
+  </si>
+  <si>
+    <t>4. Crack 12 eggs into a bowl and lightly whisk. Add the last tablespoon butter to the skillet and heat over medium. Once the skillet is hot, spread the butter to coat the surface, then pour in the whisked eggs.</t>
+  </si>
+  <si>
+    <t>5. Push the eggs in toward the center of the skillet as they set on the bottom, until most of the eggs have set, but the eggs still look moist. Do not over cook the eggs or they'll become dry. Season the eggs with a pinch of salt and pepper.</t>
+  </si>
+  <si>
+    <t>6. To assemble the burritos, add a scoop of scrambled eggs to the middle of each tortilla, then top with a scoop of cooked bell pepper and onion, a handful of cheese, and some of the cooked ham.</t>
+  </si>
+  <si>
+    <t>7. To roll the burritos, first fold the tortilla up from the bottom, then fold in the sides, and then finish rolling the burrito up until it has closed. Wrap each burrito in parchment paper using the same folding and rolling method (bottom up, sides in, finish rolling up). Label each burrito on the parchment paper or on masking tape</t>
+  </si>
+  <si>
+    <t>8. Transfer the wrapped burritos to freezer bags, label and date the bags, then place in the freezer.</t>
+  </si>
+  <si>
+    <t>9. Transfer the breakfast burrito to the refrigerator the day before to thaw. Once thawed, microwave on high for 1-2 minutes, or heat in a skillet over medium-low, about 5 minutes on each side, or until the tortilla is crispy and the insides are warm.</t>
+  </si>
+  <si>
+    <t>10. To reheat from frozen, use the microwave's defrost setting for about 5 minutes, then microwave on high for 1-2 minutes, or until heated through.</t>
   </si>
   <si>
     <t>Chili Cornbread Skillet</t>
@@ -325,31 +325,31 @@
     <t>Fresh cilantro and sliced green onion for garnish ($0.20)</t>
   </si>
   <si>
-    <t>Prepare the cilantro lime ranch first, so the flavors have time to blend. Zest the lime, then squeeze the juice from half, and cut the other half into wedges for serving. You'll need about 1 Tbsp lime juice. Finely chop about 1 Tbsp cilantro and one green onion.</t>
-  </si>
-  <si>
-    <t>Combine the ingredients for the cilantro lime ranch in a bowl (mayonnaise, sour cream, 1 Tbsp lime juice, 1/2 tsp lime zest, garlic powder, onion powder, chopped cilantro, chopped green onion, salt). Refrigerate the cilantro lime ranch until you're ready to eat.</t>
-  </si>
-  <si>
-    <t>Next, preheat the oven to 400ºF. Line a baking sheet with parchment paper. Cut the head of cauliflower into florets, then place them in a bowl. In a separate small bowl, combine the ingredients for the taco seasoning (chili powder, smoked paprika, cumin, cayenne, oregano, salt, and some freshly cracked pepper). Drizzle the olive oil over the cauliflower, followed by the taco seasoning, then toss until the cauliflower is evenly coated in oil and spices.</t>
-  </si>
-  <si>
-    <t>Spread the seasoned cauliflower out over the prepared baking sheet. Roast the cauliflower in the preheated oven for 20-30 minutes, or until it's brown and crispy on the edges.</t>
-  </si>
-  <si>
-    <t>While the cauliflower is roasting, begin cooking the rice. Add the rice and 1.5 cups water to a sauce pot. Place a lid on top, turn the heat up to high, and bring the water up to a boil. Once it reaches a full boil, turn the heat down to low and let the rice simmer for 15 minutes without lifting the lid. After 15 minutes, turn the heat off and let the rice rest for 5 minutes without lifting the lid. Finally, fluff the rice with a fork and divide it between four bowls or containers.</t>
-  </si>
-  <si>
-    <t>Add the undrained can of black beans to a small sauce pot and heat over medium-low, stirring occasionally, until heated through (if making the bowls for meal prep, skip heating the beans).</t>
-  </si>
-  <si>
-    <t>Add 1 Tbsp cooking oil to a large skillet and heat over medium. Once the oil is hot and shimmering, add the frozen corn. Cook the corn, stirring only occasionally, until it is browned and blistered (about 7-8 minutes). Season with a pinch of salt and pepper.</t>
-  </si>
-  <si>
-    <t>Slice the grape tomatoes, roughly chop the cilantro, and slice a green onions for garnish.</t>
-  </si>
-  <si>
-    <t>To build the bowls, divide the roasted cauliflower, cooked rice, beans, corn, and tomatoes between four bowls or containers. Top with a pinch of cilantro, sliced green onion, and a wedge of lime. Drizzle the cilantro lime ranch over top just before eating.</t>
+    <t>1. Prepare the cilantro lime ranch first, so the flavors have time to blend. Zest the lime, then squeeze the juice from half, and cut the other half into wedges for serving. You'll need about 1 Tbsp lime juice. Finely chop about 1 Tbsp cilantro and one green onion.</t>
+  </si>
+  <si>
+    <t>2. Combine the ingredients for the cilantro lime ranch in a bowl (mayonnaise, sour cream, 1 Tbsp lime juice, 1/2 tsp lime zest, garlic powder, onion powder, chopped cilantro, chopped green onion, salt). Refrigerate the cilantro lime ranch until you're ready to eat.</t>
+  </si>
+  <si>
+    <t>3. Next, preheat the oven to 400ºF. Line a baking sheet with parchment paper. Cut the head of cauliflower into florets, then place them in a bowl. In a separate small bowl, combine the ingredients for the taco seasoning (chili powder, smoked paprika, cumin, cayenne, oregano, salt, and some freshly cracked pepper). Drizzle the olive oil over the cauliflower, followed by the taco seasoning, then toss until the cauliflower is evenly coated in oil and spices.</t>
+  </si>
+  <si>
+    <t>4. Spread the seasoned cauliflower out over the prepared baking sheet. Roast the cauliflower in the preheated oven for 20-30 minutes, or until it's brown and crispy on the edges.</t>
+  </si>
+  <si>
+    <t>5. While the cauliflower is roasting, begin cooking the rice. Add the rice and 1.5 cups water to a sauce pot. Place a lid on top, turn the heat up to high, and bring the water up to a boil. Once it reaches a full boil, turn the heat down to low and let the rice simmer for 15 minutes without lifting the lid. After 15 minutes, turn the heat off and let the rice rest for 5 minutes without lifting the lid. Finally, fluff the rice with a fork and divide it between four bowls or containers.</t>
+  </si>
+  <si>
+    <t>6. Add the undrained can of black beans to a small sauce pot and heat over medium-low, stirring occasionally, until heated through (if making the bowls for meal prep, skip heating the beans).</t>
+  </si>
+  <si>
+    <t>7. Add 1 Tbsp cooking oil to a large skillet and heat over medium. Once the oil is hot and shimmering, add the frozen corn. Cook the corn, stirring only occasionally, until it is browned and blistered (about 7-8 minutes). Season with a pinch of salt and pepper.</t>
+  </si>
+  <si>
+    <t>8. Slice the grape tomatoes, roughly chop the cilantro, and slice a green onions for garnish.</t>
+  </si>
+  <si>
+    <t>9. To build the bowls, divide the roasted cauliflower, cooked rice, beans, corn, and tomatoes between four bowls or containers. Top with a pinch of cilantro, sliced green onion, and a wedge of lime. Drizzle the cilantro lime ranch over top just before eating.</t>
   </si>
   <si>
     <t>Country Breakfast Bowls</t>
@@ -445,28 +445,28 @@
     <t>1/4 cup granola ($0.18)</t>
   </si>
   <si>
-    <t>Add all the ingredients to a bowl or container. Enjoy immediately, or refrigerate in an air-tight container up to four days.</t>
-  </si>
-  <si>
-    <t>Add all the ingredients to a bowl or container. Enjoy immediately or refrigerate in an air-tight container up to four days.</t>
-  </si>
-  <si>
-    <t>Add one inch of water in a small sauce pot, place a lid on top, and bring the water up to a boil over high heat. Once boiling, carefully add the egg using either tongs or a slotted spoon. Replace the lid and let the egg steam for 10 minutes. After 10 minutes, turn off the heat and use the tongs or slotted spoon to transfer the egg to a bowl of ice water. Peal the egg once it is cool enough to handle. (If meal prepping these bowls, peel the eggs daily.)</t>
-  </si>
-  <si>
-    <t>Add the cottage cheese, tomatoes (sliced or whole), sliced cucumber, peeled egg, and some black pepper to a bowl. Enjoy immediately or refrigerate in an air-tight container up to four days.</t>
-  </si>
-  <si>
-    <t>Add the vanilla extract to the cottage cheese and stir to combine. Top the cottage cheese with the blueberries, almonds, and honey. Enjoy immediately or refrigerate in an air-tight container up to four days.</t>
-  </si>
-  <si>
-    <t>Place all the ingredients in a bowl. If you plan to enjoy immediately, allow the pineapple to thaw before adding to the bowl. If you plan to store the breakfast bowl for later, the pineapple can be added frozen. Refrigerate the bowl in an air-tight container for up to four days.</t>
-  </si>
-  <si>
-    <t>Add the cocoa powder, brown sugar, and vanilla to the cottage cheese and stir to combine. The cocoa may not blend in completely immediately, but it will after it sits a few moments and the powder hydrates.</t>
-  </si>
-  <si>
-    <t>Add the flavored cottage cheese to a bowl and top with granola and a drizzle of peanut butter. Enjoy immediately or refrigerate in an air-tight container for up to four days.</t>
+    <t>1. Add all the ingredients to a bowl or container. Enjoy immediately, or refrigerate in an air-tight container up to four days.</t>
+  </si>
+  <si>
+    <t>2. Add all the ingredients to a bowl or container. Enjoy immediately or refrigerate in an air-tight container up to four days.</t>
+  </si>
+  <si>
+    <t>3. Add one inch of water in a small sauce pot, place a lid on top, and bring the water up to a boil over high heat. Once boiling, carefully add the egg using either tongs or a slotted spoon. Replace the lid and let the egg steam for 10 minutes. After 10 minutes, turn off the heat and use the tongs or slotted spoon to transfer the egg to a bowl of ice water. Peal the egg once it is cool enough to handle. (If meal prepping these bowls, peel the eggs daily.)</t>
+  </si>
+  <si>
+    <t>4. Add the cottage cheese, tomatoes (sliced or whole), sliced cucumber, peeled egg, and some black pepper to a bowl. Enjoy immediately or refrigerate in an air-tight container up to four days.</t>
+  </si>
+  <si>
+    <t>5. Add the vanilla extract to the cottage cheese and stir to combine. Top the cottage cheese with the blueberries, almonds, and honey. Enjoy immediately or refrigerate in an air-tight container up to four days.</t>
+  </si>
+  <si>
+    <t>6. Place all the ingredients in a bowl. If you plan to enjoy immediately, allow the pineapple to thaw before adding to the bowl. If you plan to store the breakfast bowl for later, the pineapple can be added frozen. Refrigerate the bowl in an air-tight container for up to four days.</t>
+  </si>
+  <si>
+    <t>7. Add the cocoa powder, brown sugar, and vanilla to the cottage cheese and stir to combine. The cocoa may not blend in completely immediately, but it will after it sits a few moments and the powder hydrates.</t>
+  </si>
+  <si>
+    <t>8. Add the flavored cottage cheese to a bowl and top with granola and a drizzle of peanut butter. Enjoy immediately or refrigerate in an air-tight container for up to four days.</t>
   </si>
   <si>
     <t>Cold Peanut Noodle Salad</t>
@@ -532,22 +532,22 @@
     <t>1/4 cup cooking oil ($0.16)</t>
   </si>
   <si>
-    <t>Dice the onion and mince the garlic. Slice the jalapeño lengthwise, scrape out the seeds, and then dice the pepper. Add the cooking oil, onion, garlic, and jalapeño to a large 4-quart oven safe skillet. Sauté over medium heat until the onions are soft and translucent (about 5 minutes).</t>
-  </si>
-  <si>
-    <t>Drain the canned beans then add them to the skillet with the tomato paste, diced tomatoes, chili powder, cumin, oregano, salt, and water. Stir to combine.</t>
-  </si>
-  <si>
-    <t>Allow the chili to come up to a simmer. Let the chili continue to simmer, stirring occasionally, as you prepare the cornbread topping.</t>
-  </si>
-  <si>
-    <t>Begin to preheat the oven to 425ºF. In a large bowl, stir together the cornmeal, flour, sugar, baking powder, and salt until very well combined. In a separate bowl, whisk together the milk, egg, and oil. Pour the milk mixture into the bowl with the cornmeal mixture and stir just until everything is moistened.</t>
-  </si>
-  <si>
-    <t>Sprinkle the cheddar cheese over top of the simmering chili. Carefully pour the cornbread batter over the chili and cheese, and spread it around until the surface is evenly covered.</t>
-  </si>
-  <si>
-    <t>Transfer the skillet to the fully preheated oven and bake for 25 minutes, or until the cornbread is golden brown on the surface. To serve, simply scoop the cornbread and chili beneath onto a plate or bowl, and enjoy!</t>
+    <t>1. Dice the onion and mince the garlic. Slice the jalapeño lengthwise, scrape out the seeds, and then dice the pepper. Add the cooking oil, onion, garlic, and jalapeño to a large 4-quart oven safe skillet. Sauté over medium heat until the onions are soft and translucent (about 5 minutes).</t>
+  </si>
+  <si>
+    <t>2. Drain the canned beans then add them to the skillet with the tomato paste, diced tomatoes, chili powder, cumin, oregano, salt, and water. Stir to combine.</t>
+  </si>
+  <si>
+    <t>3. Allow the chili to come up to a simmer. Let the chili continue to simmer, stirring occasionally, as you prepare the cornbread topping.</t>
+  </si>
+  <si>
+    <t>4. Begin to preheat the oven to 425ºF. In a large bowl, stir together the cornmeal, flour, sugar, baking powder, and salt until very well combined. In a separate bowl, whisk together the milk, egg, and oil. Pour the milk mixture into the bowl with the cornmeal mixture and stir just until everything is moistened.</t>
+  </si>
+  <si>
+    <t>5. Sprinkle the cheddar cheese over top of the simmering chili. Carefully pour the cornbread batter over the chili and cheese, and spread it around until the surface is evenly covered.</t>
+  </si>
+  <si>
+    <t>6. Transfer the skillet to the fully preheated oven and bake for 25 minutes, or until the cornbread is golden brown on the surface. To serve, simply scoop the cornbread and chili beneath onto a plate or bowl, and enjoy!</t>
   </si>
   <si>
     <t>Lemon Berry Yogurt Breakfast Bowls</t>
@@ -595,22 +595,22 @@
     <t>1 handful fresh parsley (optional garnish) ($0.20)</t>
   </si>
   <si>
-    <t>Dice the onion and mince the garlic. Add the onion, garlic, and olive oil to a large soup pot and sauté over medium heat for about 5 minutes, or until the onion is soft and translucent.</t>
-  </si>
-  <si>
-    <t>Meanwhile, peel and dice the carrots. Once the onions are soft, add the carrots to the soup pot, along with the canned diced tomatoes (with juices), barley, basil, oregano, some freshly cracked pepper, and vegetable broth.</t>
-  </si>
-  <si>
-    <t>Stir the contents of the pot to combine, place a lid on top, turn the heat up to medium-high, and bring the broth up to a boil. Once boiling, turn the heat down to medium-low, and let the soup simmer, with the lid in place, stirring occasionally, for 30 minutes.</t>
-  </si>
-  <si>
-    <t>While the soup simmers, peel and dice the potato into 1/2-inch cubes. After the soup has simmered and the barley is mostly tender, add the diced potatoes and continue to simmer for 10 minutes more, or just until the potatoes are tender.</t>
-  </si>
-  <si>
-    <t>Once the potatoes are tender, add the frozen green beans, corn, and peas. Stir to combine, and heat through (about 5 minutes in the simmering soup).</t>
-  </si>
-  <si>
-    <t>Finally, add the lemon juice to the soup and stir to combine. Taste the soup and adjust the salt or pepper to your liking. Serve hot, with fresh chopped parsley on top as a garnish, if desired.</t>
+    <t>1. Dice the onion and mince the garlic. Add the onion, garlic, and olive oil to a large soup pot and sauté over medium heat for about 5 minutes, or until the onion is soft and translucent.</t>
+  </si>
+  <si>
+    <t>2. Meanwhile, peel and dice the carrots. Once the onions are soft, add the carrots to the soup pot, along with the canned diced tomatoes (with juices), barley, basil, oregano, some freshly cracked pepper, and vegetable broth.</t>
+  </si>
+  <si>
+    <t>3. Stir the contents of the pot to combine, place a lid on top, turn the heat up to medium-high, and bring the broth up to a boil. Once boiling, turn the heat down to medium-low, and let the soup simmer, with the lid in place, stirring occasionally, for 30 minutes.</t>
+  </si>
+  <si>
+    <t>4. While the soup simmers, peel and dice the potato into 1/2-inch cubes. After the soup has simmered and the barley is mostly tender, add the diced potatoes and continue to simmer for 10 minutes more, or just until the potatoes are tender.</t>
+  </si>
+  <si>
+    <t>5. Once the potatoes are tender, add the frozen green beans, corn, and peas. Stir to combine, and heat through (about 5 minutes in the simmering soup).</t>
+  </si>
+  <si>
+    <t>6. Finally, add the lemon juice to the soup and stir to combine. Taste the soup and adjust the salt or pepper to your liking. Serve hot, with fresh chopped parsley on top as a garnish, if desired.</t>
   </si>
   <si>
     <t>Roasted Vegetable Couscous Meal Prep</t>
@@ -646,25 +646,25 @@
     <t>1 cup shredded cheddar cheese ($0.85)</t>
   </si>
   <si>
-    <t>Preheat the oven to 400ºF. Wash and cut the potatoes into ½-inch cubes.</t>
-  </si>
-  <si>
-    <t>For extra protection against the potatoes sticking, line a baking sheet with parchment paper. Otherwise, rub 1 Tbsp of the olive oil over the surface of a large baking sheet. Spread the potatoes out onto the baking sheet. Drizzle the remaining tablespoon of oil over the potatoes, along with the smoked paprika, garlic powder, salt, and pepper. Toss to coat the potatoes in oil and spices.</t>
-  </si>
-  <si>
-    <t>Roast the potatoes in the preheated oven for 40-45 minutes, or until they are golden brown and crispy. Stir once half way through roasting.</t>
-  </si>
-  <si>
-    <t>When the potatoes are close to being finished, crack the eggs into a large bowl and add a pinch of salt and pepper. Gently whisk the eggs.</t>
-  </si>
-  <si>
-    <t>Melt the butter in a large skillet over medium-low heat. When the butter is melted, pour in the eggs. Gently move the eggs around the skillet until they are mostly solid, but still soft and glistening. Be careful not to over cook the eggs at this point because they will cook further when the breakfast bowls are reheated.</t>
-  </si>
-  <si>
-    <t>To prepare the bowls, divide the roasted potatoes and scrambled eggs between four freezer safe containers. Add 1/4 cup of salsa to each container then top with about 1/4 cup of shredded cheese.</t>
-  </si>
-  <si>
-    <t>Chill the bowls in the refrigerator before transferring to the freezer. Or, leave them in the refrigerator if you plan to eat them within 4-5 days.</t>
+    <t>1. Preheat the oven to 400ºF. Wash and cut the potatoes into ½-inch cubes.</t>
+  </si>
+  <si>
+    <t>2. For extra protection against the potatoes sticking, line a baking sheet with parchment paper. Otherwise, rub 1 Tbsp of the olive oil over the surface of a large baking sheet. Spread the potatoes out onto the baking sheet. Drizzle the remaining tablespoon of oil over the potatoes, along with the smoked paprika, garlic powder, salt, and pepper. Toss to coat the potatoes in oil and spices.</t>
+  </si>
+  <si>
+    <t>3. Roast the potatoes in the preheated oven for 40-45 minutes, or until they are golden brown and crispy. Stir once half way through roasting.</t>
+  </si>
+  <si>
+    <t>4. When the potatoes are close to being finished, crack the eggs into a large bowl and add a pinch of salt and pepper. Gently whisk the eggs.</t>
+  </si>
+  <si>
+    <t>5. Melt the butter in a large skillet over medium-low heat. When the butter is melted, pour in the eggs. Gently move the eggs around the skillet until they are mostly solid, but still soft and glistening. Be careful not to over cook the eggs at this point because they will cook further when the breakfast bowls are reheated.</t>
+  </si>
+  <si>
+    <t>6. To prepare the bowls, divide the roasted potatoes and scrambled eggs between four freezer safe containers. Add 1/4 cup of salsa to each container then top with about 1/4 cup of shredded cheese.</t>
+  </si>
+  <si>
+    <t>7. Chill the bowls in the refrigerator before transferring to the freezer. Or, leave them in the refrigerator if you plan to eat them within 4-5 days.</t>
   </si>
   <si>
     <t>Quick &amp; Easy Ground Turkey Stir Fry</t>
@@ -712,22 +712,22 @@
     <t>2.5 cups cooked brown rice ($0.60)</t>
   </si>
   <si>
-    <t>Make the stir fry sauce by stirring together the soy sauce, toasted sesame oil, brown sugar, red pepper, and water until the sugar is dissolved. Set the sauce aside.</t>
-  </si>
-  <si>
-    <t>Dice the bell peppers and slice the green onions.</t>
-  </si>
-  <si>
-    <t>Heat the cooking oil in a very large skillet over medium heat. Once hot, add the ground turkey and minced garlic. Stir and cook until the turkey is cooked through and no water is left pooling on the bottom of the skillet (8-10 minutes).</t>
-  </si>
-  <si>
-    <t>Once the turkey is cooked and the moisture has evaporated, add the bell pepper and green onions to the skillet. Stir and cook for about 2 minutes more, then add the spinach and continue to cook just until it is about half wilted (1-2 minutes).</t>
-  </si>
-  <si>
-    <t>Pour the stir fry sauce into the skillet. Continue to stir and cook the turkey and vegetables until everything is coated in sauce and the spinach is fully wilted (about 2 minutes more).</t>
-  </si>
-  <si>
-    <t>Serve about 1 cup of the stir fry mixture with 1/2 cup rice and a sprinkle of chopped peanuts over top.</t>
+    <t>1. Make the stir fry sauce by stirring together the soy sauce, toasted sesame oil, brown sugar, red pepper, and water until the sugar is dissolved. Set the sauce aside.</t>
+  </si>
+  <si>
+    <t>2. Dice the bell peppers and slice the green onions.</t>
+  </si>
+  <si>
+    <t>3. Heat the cooking oil in a very large skillet over medium heat. Once hot, add the ground turkey and minced garlic. Stir and cook until the turkey is cooked through and no water is left pooling on the bottom of the skillet (8-10 minutes).</t>
+  </si>
+  <si>
+    <t>4. Once the turkey is cooked and the moisture has evaporated, add the bell pepper and green onions to the skillet. Stir and cook for about 2 minutes more, then add the spinach and continue to cook just until it is about half wilted (1-2 minutes).</t>
+  </si>
+  <si>
+    <t>5. Pour the stir fry sauce into the skillet. Continue to stir and cook the turkey and vegetables until everything is coated in sauce and the spinach is fully wilted (about 2 minutes more).</t>
+  </si>
+  <si>
+    <t>6. Serve about 1 cup of the stir fry mixture with 1/2 cup rice and a sprinkle of chopped peanuts over top.</t>
   </si>
   <si>
     <t>Salsa Chicken Meal Prep Bowls</t>
@@ -790,28 +790,28 @@
     <t>1/2 cup hummus ($1.15)</t>
   </si>
   <si>
-    <t>Make the dressing first. In a small bowl combine the garlic powder, onion powder, dill, parsley, salt, pepper, tahini, water, and lemon juice. Stir or whisk until smooth. Refrigerate the dressing as you prepare the rest of the salad.</t>
-  </si>
-  <si>
-    <t>Begin cooking the quinoa. Rinse the quinoa well in a fine wire mesh sieve. Place the rinsed quinoa in a small sauce pot and add 1.75 cups water. Place a lid on top, turn the heat on to high, and bring it up to a boil. Once it reaches a boil, turn the heat down to low and let it simmer for 15 minutes.</t>
-  </si>
-  <si>
-    <t>After letting the quinoa simmer for 15 minutes, turn the heat off and let it rest with the lid in place for five minutes. Empty the cooked quinoa out into a casserole dish, spreading it out to increase the surface area. Refrigerate the dish with the quinoa until you're ready to assemble the meal preps.</t>
-  </si>
-  <si>
-    <t>Preheat the oven to 400ºF. Place the grape tomatoes onto a large baking sheet. Slice the onion into 1/4-inch strips. Cut the zucchini and yellow squash into 1/4-inch wide half-rounds. Cut the mushrooms in half. Mix the vegetables together on the baking sheet. If there are too many to fit in a single layer on the baking sheet, divide them between two baking sheets.</t>
-  </si>
-  <si>
-    <t>Add the olive oil, oregano, garlic powder, and salt to the vegetables. Use your hands to mix the vegetables and seasoning, until the vegetables are well coated in oil.</t>
-  </si>
-  <si>
-    <t>Roast the vegetables in the preheated 400ºF oven, stirring every 15 minutes, until the vegetables are browned on the edges. Allow the vegetables to cool for about 10 minutes at room temperature.</t>
-  </si>
-  <si>
-    <t>To build the meal prep bowls, place one heaping cup of spinach in each dish. Add 1/2 cup of the cooked and cooled quinoa on top of the spinach. Divide the roasted vegetables between the four containers, then add 2 Tbsp hummus to each dish.</t>
-  </si>
-  <si>
-    <t>Divide the dressing between four small dressing containers. Refrigerate the salads and dressing for up to 4 days.</t>
+    <t>1. Make the dressing first. In a small bowl combine the garlic powder, onion powder, dill, parsley, salt, pepper, tahini, water, and lemon juice. Stir or whisk until smooth. Refrigerate the dressing as you prepare the rest of the salad.</t>
+  </si>
+  <si>
+    <t>2. Begin cooking the quinoa. Rinse the quinoa well in a fine wire mesh sieve. Place the rinsed quinoa in a small sauce pot and add 1.75 cups water. Place a lid on top, turn the heat on to high, and bring it up to a boil. Once it reaches a boil, turn the heat down to low and let it simmer for 15 minutes.</t>
+  </si>
+  <si>
+    <t>3. After letting the quinoa simmer for 15 minutes, turn the heat off and let it rest with the lid in place for five minutes. Empty the cooked quinoa out into a casserole dish, spreading it out to increase the surface area. Refrigerate the dish with the quinoa until you're ready to assemble the meal preps.</t>
+  </si>
+  <si>
+    <t>4. Preheat the oven to 400ºF. Place the grape tomatoes onto a large baking sheet. Slice the onion into 1/4-inch strips. Cut the zucchini and yellow squash into 1/4-inch wide half-rounds. Cut the mushrooms in half. Mix the vegetables together on the baking sheet. If there are too many to fit in a single layer on the baking sheet, divide them between two baking sheets.</t>
+  </si>
+  <si>
+    <t>5. Add the olive oil, oregano, garlic powder, and salt to the vegetables. Use your hands to mix the vegetables and seasoning, until the vegetables are well coated in oil.</t>
+  </si>
+  <si>
+    <t>6. Roast the vegetables in the preheated 400ºF oven, stirring every 15 minutes, until the vegetables are browned on the edges. Allow the vegetables to cool for about 10 minutes at room temperature.</t>
+  </si>
+  <si>
+    <t>7. To build the meal prep bowls, place one heaping cup of spinach in each dish. Add 1/2 cup of the cooked and cooled quinoa on top of the spinach. Divide the roasted vegetables between the four containers, then add 2 Tbsp hummus to each dish.</t>
+  </si>
+  <si>
+    <t>8. Divide the dressing between four small dressing containers. Refrigerate the salads and dressing for up to 4 days.</t>
   </si>
   <si>
     <t>Balsamic Roasted Mushrooms with Herby Kale Mashed Potatoes</t>
@@ -841,19 +841,19 @@
     <t>1 15oz. can chickpeas ($0.49)</t>
   </si>
   <si>
-    <t>Rinse the quinoa well in a fine wire mesh sieve. Place the rinsed quinoa in a pot with 1.75 cups water. Place a lid on the pot, turn the heat on to high, and allow the water to come to a boil. Once it reaches a full boil, turn the heat down to low and let it simmer for 15 minutes (lid on).</t>
-  </si>
-  <si>
-    <t>While the quinoa is cooking, prepare the lemon garlic dressing. Zest the lemon, then squeeze the juice (you'll need 1/4 to 1/3 cup juice). Add the lemon juice and 1 tsp of the zest to a bowl or jar along with the olive oil, minced garlic, salt, and some freshly cracked pepper (10-15 cranks of a pepper mill). Whisk the ingredients together or close the jar and shake until they are combined. Set the dressing aside.</t>
-  </si>
-  <si>
-    <t>After the quinoa has cooked, spread it out into a casserole dish or other wide shallow dish and refrigerate uncovered for about 15 minutes to cool it down.</t>
-  </si>
-  <si>
-    <t>While the quinoa is cooling, prepare the rest of the salad ingredients. Drain the artichoke hearts and roughly chop them into smaller pieces. Finely dice the red bell pepper. Roughly chop the parsley. Rinse and drain the chickpeas. Place the artichoke hearts, bell pepper, parsley, and chickpeas in a large bowl.</t>
-  </si>
-  <si>
-    <t>Once the quinoa has cooled, add it to the bowl with the other salad ingredients. Toss gently to combine, then drizzle the lemon garlic dressing over top. Gently toss again until everything is coated in dressing. Serve immediately or refrigerate up to 4-5 days.</t>
+    <t>1. Rinse the quinoa well in a fine wire mesh sieve. Place the rinsed quinoa in a pot with 1.75 cups water. Place a lid on the pot, turn the heat on to high, and allow the water to come to a boil. Once it reaches a full boil, turn the heat down to low and let it simmer for 15 minutes (lid on).</t>
+  </si>
+  <si>
+    <t>2. While the quinoa is cooking, prepare the lemon garlic dressing. Zest the lemon, then squeeze the juice (you'll need 1/4 to 1/3 cup juice). Add the lemon juice and 1 tsp of the zest to a bowl or jar along with the olive oil, minced garlic, salt, and some freshly cracked pepper (10-15 cranks of a pepper mill). Whisk the ingredients together or close the jar and shake until they are combined. Set the dressing aside.</t>
+  </si>
+  <si>
+    <t>3. After the quinoa has cooked, spread it out into a casserole dish or other wide shallow dish and refrigerate uncovered for about 15 minutes to cool it down.</t>
+  </si>
+  <si>
+    <t>4. While the quinoa is cooling, prepare the rest of the salad ingredients. Drain the artichoke hearts and roughly chop them into smaller pieces. Finely dice the red bell pepper. Roughly chop the parsley. Rinse and drain the chickpeas. Place the artichoke hearts, bell pepper, parsley, and chickpeas in a large bowl.</t>
+  </si>
+  <si>
+    <t>5. Once the quinoa has cooled, add it to the bowl with the other salad ingredients. Toss gently to combine, then drizzle the lemon garlic dressing over top. Gently toss again until everything is coated in dressing. Serve immediately or refrigerate up to 4-5 days.</t>
   </si>
   <si>
     <t>Loaded Sweet Potatoes with Chipotle Lime Crema</t>
@@ -901,19 +901,19 @@
     <t>1/2 cup peanuts, chopped ($0.24)</t>
   </si>
   <si>
-    <t>To make the peanut lime dressing, combine all the ingredients in a bowl or blender. Whisk or blend until smooth. Set the dressing aside.</t>
-  </si>
-  <si>
-    <t>Bring a pot of water to a boil for the whole wheat spaghetti. Break the spaghetti in half to make it easier to stir into the salad ingredients later. Once the water is boiling, add the spaghetti, and continue to boil until the pasta is tender. Drain in a colander and rinse it briefly with cold water to cool it off. Let the pasta drain well.</t>
-  </si>
-  <si>
-    <t>Meanwhile, shred the cabbage as finely as possible using either a knife or the shredding attachment of a food processor. Shred the carrots using a large-holed cheese grater. Roughly chop the cilantro and peanuts. Slice the green onion.</t>
-  </si>
-  <si>
-    <t>Combine the cooled and well drained pasta in a large bowl with the cabbage, carrots, cilantro, green onion, and peanuts. Toss the salad until the ingredients are evenly combined.</t>
-  </si>
-  <si>
-    <t>Serve the salad and peanut lime dressing immediately, or divide the undressed salad between four containers (about 2 cups each) and divide the dressing between four smaller containers (about 2 Tbsp or slightly more each). Refrigerate up to 4-5 days.</t>
+    <t>1. To make the peanut lime dressing, combine all the ingredients in a bowl or blender. Whisk or blend until smooth. Set the dressing aside.</t>
+  </si>
+  <si>
+    <t>2. Bring a pot of water to a boil for the whole wheat spaghetti. Break the spaghetti in half to make it easier to stir into the salad ingredients later. Once the water is boiling, add the spaghetti, and continue to boil until the pasta is tender. Drain in a colander and rinse it briefly with cold water to cool it off. Let the pasta drain well.</t>
+  </si>
+  <si>
+    <t>3. Meanwhile, shred the cabbage as finely as possible using either a knife or the shredding attachment of a food processor. Shred the carrots using a large-holed cheese grater. Roughly chop the cilantro and peanuts. Slice the green onion.</t>
+  </si>
+  <si>
+    <t>4. Combine the cooled and well drained pasta in a large bowl with the cabbage, carrots, cilantro, green onion, and peanuts. Toss the salad until the ingredients are evenly combined.</t>
+  </si>
+  <si>
+    <t>5. Serve the salad and peanut lime dressing immediately, or divide the undressed salad between four containers (about 2 cups each) and divide the dressing between four smaller containers (about 2 Tbsp or slightly more each). Refrigerate up to 4-5 days.</t>
   </si>
   <si>
     <t>Sweet and Spicy Tempeh Bowls</t>
@@ -937,10 +937,10 @@
     <t>2 strawberries, sliced ($0.37)</t>
   </si>
   <si>
-    <t>Place the yogurt in a bowl and top with the rolled oats, chia seeds, lemon curd, and sliced strawberries. Serve immediately.</t>
-  </si>
-  <si>
-    <t>To prepare this bowl as overnight oats, place the oats and chia seeds in the bottom of a jar or other sealable container. Top with the yogurt, lemon curd, and strawberries. Refrigerate for at least 8 hours, or up to 3-4 days.</t>
+    <t>1. Place the yogurt in a bowl and top with the rolled oats, chia seeds, lemon curd, and sliced strawberries. Serve immediately.</t>
+  </si>
+  <si>
+    <t>2. To prepare this bowl as overnight oats, place the oats and chia seeds in the bottom of a jar or other sealable container. Top with the yogurt, lemon curd, and strawberries. Refrigerate for at least 8 hours, or up to 3-4 days.</t>
   </si>
   <si>
     <t>Mediterranean Hummus Bowls</t>
@@ -973,13 +973,13 @@
     <t>1 cup homemade ranch dressing ($1.02)</t>
   </si>
   <si>
-    <t>Place the dressing cups in the center of your meal prep containers and fill each with about 1/4 cup dressing.</t>
-  </si>
-  <si>
-    <t>Divide the vegetables between the four containers, packing them in around the dressing cups.</t>
-  </si>
-  <si>
-    <t>Refrigerate the veggie snack packs up to 5 days.</t>
+    <t>1. Place the dressing cups in the center of your meal prep containers and fill each with about 1/4 cup dressing.</t>
+  </si>
+  <si>
+    <t>2. Divide the vegetables between the four containers, packing them in around the dressing cups.</t>
+  </si>
+  <si>
+    <t>3. Refrigerate the veggie snack packs up to 5 days.</t>
   </si>
   <si>
     <t>Glazed Chicken Meal Prep</t>
@@ -1039,31 +1039,31 @@
     <t>1/2 cup ranch dressing ($0.70)</t>
   </si>
   <si>
-    <t>Prepare the Roasted Vegetable Couscous first. Preheat the oven to 400ºF. Chop the Roma tomatoes, zucchini, and bell pepper into 1-inch pieces. Slice the red onion into 1/2-inch thick strips. Place the tomatoes, zucchini, bell pepper, onion, and peeled garlic on a large baking sheet.</t>
-  </si>
-  <si>
-    <t>Drizzle the olive oil over the chopped vegetables, toss to coat, then season with a couple pinches of salt and pepper. Roast the vegetables for about 45 minutes, stirring every 15 minutes or so.</t>
-  </si>
-  <si>
-    <t>While the vegetables are roasting, begin the couscous. Bring the vegetable broth to a boil in a small sauce pot. Once boiling, stir in the couscous. Place a lid on top, remove the pot from the heat, and let the couscous sit for five minutes, or until all of the broth is absorbed. Fluff the couscous with a fork, then place in the refrigerator to begin cooling as you prepare the rest of the meal.</t>
-  </si>
-  <si>
-    <t>While the couscous is chilling, begin the garlic herb baked chicken. Combine the room temperature butter with the parsley, oregano, basil, garlic powder, onion powder, salt, and pepper in a bowl. Stir until it forms a paste.</t>
-  </si>
-  <si>
-    <t>If the chicken breasts are thick, gently pound them with a mallet or rolling pin until they are an even thickness, no more than 3/4-inch thick (I cover the chicken with plastic to prevent splatter when pounding). Pat the chicken dry, then smear the butter herb mixture over the entire surface.</t>
-  </si>
-  <si>
-    <t>Place the seasoned chicken in a baking dish and bake for 20 minutes at 400ºF, or until the internal temperature reaches 165ºF. Let the chicken rest for 5 minutes, then slice into strips.</t>
-  </si>
-  <si>
-    <t>To make Garlic Herb Chickpeas instead, rinse and drain 2 15oz. cans of chickpeas. Heat 1 Tbsp oil in a large skillet over medium. Once hot, add the chickpeas, and sauté for about 5 minutes, or until the chickpeas are golden and the skins are blistered. Remove them from heat and then season with the same garlic herb spices used for the chicken (no butter). Stir until the chickpeas are coated in the herbs and spices.</t>
-  </si>
-  <si>
-    <t>When the vegetables are finally finished roasting, pull out the whole garlic cloves from the baking sheet and mince them. Combine the partially cooled couscous, the roasted vegetables, garlic, and chopped parsley in a large bowl. Stir to combine.</t>
-  </si>
-  <si>
-    <t>Divide the Roasted Vegetable Couscous between four containers and top with sliced chicken or 1/4 of the Garlic Herb Chickpeas. Serve each portion with 2 Tbsp ranch dressing.</t>
+    <t>1. Prepare the Roasted Vegetable Couscous first. Preheat the oven to 400ºF. Chop the Roma tomatoes, zucchini, and bell pepper into 1-inch pieces. Slice the red onion into 1/2-inch thick strips. Place the tomatoes, zucchini, bell pepper, onion, and peeled garlic on a large baking sheet.</t>
+  </si>
+  <si>
+    <t>2. Drizzle the olive oil over the chopped vegetables, toss to coat, then season with a couple pinches of salt and pepper. Roast the vegetables for about 45 minutes, stirring every 15 minutes or so.</t>
+  </si>
+  <si>
+    <t>3. While the vegetables are roasting, begin the couscous. Bring the vegetable broth to a boil in a small sauce pot. Once boiling, stir in the couscous. Place a lid on top, remove the pot from the heat, and let the couscous sit for five minutes, or until all of the broth is absorbed. Fluff the couscous with a fork, then place in the refrigerator to begin cooling as you prepare the rest of the meal.</t>
+  </si>
+  <si>
+    <t>4. While the couscous is chilling, begin the garlic herb baked chicken. Combine the room temperature butter with the parsley, oregano, basil, garlic powder, onion powder, salt, and pepper in a bowl. Stir until it forms a paste.</t>
+  </si>
+  <si>
+    <t>5. If the chicken breasts are thick, gently pound them with a mallet or rolling pin until they are an even thickness, no more than 3/4-inch thick (I cover the chicken with plastic to prevent splatter when pounding). Pat the chicken dry, then smear the butter herb mixture over the entire surface.</t>
+  </si>
+  <si>
+    <t>6. Place the seasoned chicken in a baking dish and bake for 20 minutes at 400ºF, or until the internal temperature reaches 165ºF. Let the chicken rest for 5 minutes, then slice into strips.</t>
+  </si>
+  <si>
+    <t>7. To make Garlic Herb Chickpeas instead, rinse and drain 2 15oz. cans of chickpeas. Heat 1 Tbsp oil in a large skillet over medium. Once hot, add the chickpeas, and sauté for about 5 minutes, or until the chickpeas are golden and the skins are blistered. Remove them from heat and then season with the same garlic herb spices used for the chicken (no butter). Stir until the chickpeas are coated in the herbs and spices.</t>
+  </si>
+  <si>
+    <t>8. When the vegetables are finally finished roasting, pull out the whole garlic cloves from the baking sheet and mince them. Combine the partially cooled couscous, the roasted vegetables, garlic, and chopped parsley in a large bowl. Stir to combine.</t>
+  </si>
+  <si>
+    <t>9. Divide the Roasted Vegetable Couscous between four containers and top with sliced chicken or 1/4 of the Garlic Herb Chickpeas. Serve each portion with 2 Tbsp ranch dressing.</t>
   </si>
   <si>
     <t>Cobb Salad Meal Prep</t>
@@ -1132,25 +1132,25 @@
     <t>2 Tbsp  parsley, chopped, for garnish ($0.11)</t>
   </si>
   <si>
-    <t>Preheat the oven to 425ºF. Dice the zucchini and yellow squash. Reserve 1/4 of the red onion for the meatballs and cut the remaining 3/4 into 1-inch slices. Place the chopped zucchini, squash, onion, and grape tomatoes on a large baking sheet.</t>
-  </si>
-  <si>
-    <t>Drizzle the olive oil over the vegetables, then add the garlic powder, oregano, salt and pepper. Use your hands to toss the vegetables in the oil and spices until they are evenly coated. Spread the vegetables out evenly over the baking sheet, then transfer them to the oven.</t>
-  </si>
-  <si>
-    <t>Roast the vegetables in the oven for 40 minutes, or until they are wilted and browned on the edges, stirring once half way through.</t>
-  </si>
-  <si>
-    <t>While the vegetables are roasting, prepare the meatballs. Mince the remaining 1/4 red onion. Add the ground beef, red onion, minced garlic, chopped parsley, oregano, cumin, cloves, cinnamon, and salt to a bowl. Mix the ingredients together until they are well combined.</t>
-  </si>
-  <si>
-    <t>Shape the meat mixture into 16 ping pong sized meatballs. This is a good time to begin cooking your rice so that it's finished at the same time as the meatballs and vegetables.</t>
-  </si>
-  <si>
-    <t>Heat a large non-stick or cast iron skillet over medium heat. Once hot, 1 Tbsp cooking oil and swirl to coat the surface of the skillet. Add half of the meatballs and cook on each side until well browned (about 7 minutes total). Be careful as you turn the meatballs, as they can be quite delicate. If it's easier, you can flatten them into mini patty shapes. Transfer the cooked meatballs to a clean plate, add more oil to the skillet, and cook the second batch in the same manner.</t>
-  </si>
-  <si>
-    <t>Once the meatballs are cooked and the vegetables have finished roasting, it's time to assemble the meal. Place about 1 cup cooked rice on each plate or container, add 1/4 of the roasted vegetables, then top with four of the beef kofta meatballs. Top with a little more chopped parsley and enjoy!</t>
+    <t>1. Preheat the oven to 425ºF. Dice the zucchini and yellow squash. Reserve 1/4 of the red onion for the meatballs and cut the remaining 3/4 into 1-inch slices. Place the chopped zucchini, squash, onion, and grape tomatoes on a large baking sheet.</t>
+  </si>
+  <si>
+    <t>2. Drizzle the olive oil over the vegetables, then add the garlic powder, oregano, salt and pepper. Use your hands to toss the vegetables in the oil and spices until they are evenly coated. Spread the vegetables out evenly over the baking sheet, then transfer them to the oven.</t>
+  </si>
+  <si>
+    <t>3. Roast the vegetables in the oven for 40 minutes, or until they are wilted and browned on the edges, stirring once half way through.</t>
+  </si>
+  <si>
+    <t>4. While the vegetables are roasting, prepare the meatballs. Mince the remaining 1/4 red onion. Add the ground beef, red onion, minced garlic, chopped parsley, oregano, cumin, cloves, cinnamon, and salt to a bowl. Mix the ingredients together until they are well combined.</t>
+  </si>
+  <si>
+    <t>5. Shape the meat mixture into 16 ping pong sized meatballs. This is a good time to begin cooking your rice so that it's finished at the same time as the meatballs and vegetables.</t>
+  </si>
+  <si>
+    <t>6. Heat a large non-stick or cast iron skillet over medium heat. Once hot, 1 Tbsp cooking oil and swirl to coat the surface of the skillet. Add half of the meatballs and cook on each side until well browned (about 7 minutes total). Be careful as you turn the meatballs, as they can be quite delicate. If it's easier, you can flatten them into mini patty shapes. Transfer the cooked meatballs to a clean plate, add more oil to the skillet, and cook the second batch in the same manner.</t>
+  </si>
+  <si>
+    <t>7. Once the meatballs are cooked and the vegetables have finished roasting, it's time to assemble the meal. Place about 1 cup cooked rice on each plate or container, add 1/4 of the roasted vegetables, then top with four of the beef kofta meatballs. Top with a little more chopped parsley and enjoy!</t>
   </si>
   <si>
     <t>Smoky Chicken and Cinnamon Roasted Sweet Potato Meal Prep</t>
@@ -1198,22 +1198,22 @@
     <t>2 green onions ($0.13)</t>
   </si>
   <si>
-    <t>Cook the rice first. You will be able to prepare all the rest of the ingredients as the rice cooks. Cook the rice according to the package directions. To yield about 4 cups white rice, I use 1.5 cups uncooked rice and 2.5 cups water, but this may vary depending on your rice variety, so be sure to check the package.</t>
-  </si>
-  <si>
-    <t>While the rice is cooking, add the ground turkey or beef to a skillet and cook over medium heat until it is cooked through. Depending on the fat content of your meat, you may need to add a little oil to the skillet to keep it from sticking.</t>
-  </si>
-  <si>
-    <t>Once the meat is fully cooked, add the taco seasoning and 1/2 cup water. Stir and simmer the meat and spices until the water reduces to a saucy consistency (about 5 minutes). Turn the heat off and set the meat aside.</t>
-  </si>
-  <si>
-    <t>Thaw the corn kernels, rinse and drain the black beans, shred the cheese, and slice the green onions.</t>
-  </si>
-  <si>
-    <t>Once the rice is finished, fluff it with a fork and divide it between four containers. Divide the remaining six bowl ingredients between the containers as well (taco meat, corn, beans, cheese, salsa, and green onions).</t>
-  </si>
-  <si>
-    <t>Reheat the bowls for 1-2 minutes before eating to melt the cheese and heat the meat and rice through.</t>
+    <t>1. Cook the rice first. You will be able to prepare all the rest of the ingredients as the rice cooks. Cook the rice according to the package directions. To yield about 4 cups white rice, I use 1.5 cups uncooked rice and 2.5 cups water, but this may vary depending on your rice variety, so be sure to check the package.</t>
+  </si>
+  <si>
+    <t>2. While the rice is cooking, add the ground turkey or beef to a skillet and cook over medium heat until it is cooked through. Depending on the fat content of your meat, you may need to add a little oil to the skillet to keep it from sticking.</t>
+  </si>
+  <si>
+    <t>3. Once the meat is fully cooked, add the taco seasoning and 1/2 cup water. Stir and simmer the meat and spices until the water reduces to a saucy consistency (about 5 minutes). Turn the heat off and set the meat aside.</t>
+  </si>
+  <si>
+    <t>4. Thaw the corn kernels, rinse and drain the black beans, shred the cheese, and slice the green onions.</t>
+  </si>
+  <si>
+    <t>5. Once the rice is finished, fluff it with a fork and divide it between four containers. Divide the remaining six bowl ingredients between the containers as well (taco meat, corn, beans, cheese, salsa, and green onions).</t>
+  </si>
+  <si>
+    <t>6. Reheat the bowls for 1-2 minutes before eating to melt the cheese and heat the meat and rice through.</t>
   </si>
   <si>
     <t>Pork &amp; Peanut Dragon Noodle Meal Prep</t>
@@ -1267,28 +1267,28 @@
     <t>4 Tbsp  sour cream ($0.11)</t>
   </si>
   <si>
-    <t>Preheat the oven to 425ºF. Cook the brown rice according to the package directions. (Add rice, salt, and water to a pot, cover, bring to a boil over high heat, then turn the heat down to low and simmer for 35 minutes.)</t>
-  </si>
-  <si>
-    <t>While the rice is cooking, begin the chicken. Add the chicken breasts to a medium sauce pot along with the salsa, chicken broth, and chili powder. Give everything a brief stir.</t>
-  </si>
-  <si>
-    <t>Place a lid on the pot and bring it to a boil over high heat. Once the liquid starts boiling, turn the heat down to low and let the chicken simmer over low for 30 minutes. Make sure it's simmering the whole time, adjusting the heat slightly if needed.</t>
-  </si>
-  <si>
-    <t>While the rice and chicken are cooking, prepare the bell peppers. Slice the bell peppers into 1/2-wide strips. Place them on a baking sheet and drizzle with cooking oil. Toss the peppers to coat them in oil, then sprinkle with a pinch of salt.</t>
-  </si>
-  <si>
-    <t>Roast the peppers in the preheated oven for 20-25 minutes, or until they are browned on the edges, stirring once half way through.</t>
-  </si>
-  <si>
-    <t>After the chicken has simmered for 30 minutes, remove it from the salsa mixture and use two forks to shred the meat. Return the shredded chicken to the pot of salsa and stir to combine.</t>
-  </si>
-  <si>
-    <t>Once the rice has rested, the chicken has been shredded, and the peppers have finished roasting, it's time to build the bowls.</t>
-  </si>
-  <si>
-    <t>Add about 3/4 cup rice to each container, followed by 1/4 of the roasted peppers, and 1/4 of the shredded chicken. Spoon the salsa mixture from the pot over the shredded chicken in the containers. This will act as a sauce to help moisten the entire dish. Top with sliced green onions and a dollop of sour cream and serve immediately or refrigerate for up to 4 days.</t>
+    <t>1. Preheat the oven to 425ºF. Cook the brown rice according to the package directions. (Add rice, salt, and water to a pot, cover, bring to a boil over high heat, then turn the heat down to low and simmer for 35 minutes.)</t>
+  </si>
+  <si>
+    <t>2. While the rice is cooking, begin the chicken. Add the chicken breasts to a medium sauce pot along with the salsa, chicken broth, and chili powder. Give everything a brief stir.</t>
+  </si>
+  <si>
+    <t>3. Place a lid on the pot and bring it to a boil over high heat. Once the liquid starts boiling, turn the heat down to low and let the chicken simmer over low for 30 minutes. Make sure it's simmering the whole time, adjusting the heat slightly if needed.</t>
+  </si>
+  <si>
+    <t>4. While the rice and chicken are cooking, prepare the bell peppers. Slice the bell peppers into 1/2-wide strips. Place them on a baking sheet and drizzle with cooking oil. Toss the peppers to coat them in oil, then sprinkle with a pinch of salt.</t>
+  </si>
+  <si>
+    <t>5. Roast the peppers in the preheated oven for 20-25 minutes, or until they are browned on the edges, stirring once half way through.</t>
+  </si>
+  <si>
+    <t>6. After the chicken has simmered for 30 minutes, remove it from the salsa mixture and use two forks to shred the meat. Return the shredded chicken to the pot of salsa and stir to combine.</t>
+  </si>
+  <si>
+    <t>7. Once the rice has rested, the chicken has been shredded, and the peppers have finished roasting, it's time to build the bowls.</t>
+  </si>
+  <si>
+    <t>8. Add about 3/4 cup rice to each container, followed by 1/4 of the roasted peppers, and 1/4 of the shredded chicken. Spoon the salsa mixture from the pot over the shredded chicken in the containers. This will act as a sauce to help moisten the entire dish. Top with sliced green onions and a dollop of sour cream and serve immediately or refrigerate for up to 4 days.</t>
   </si>
   <si>
     <t>Herb Butter Chicken Meal Prep</t>
@@ -1333,22 +1333,22 @@
     <t>12 oz. vegetarian Italian sausage* ($2.89)</t>
   </si>
   <si>
-    <t>Peel and cube the potatoes into 1-inch pieces. Rinse them well in a colander, then transfer to a pot and add 1/2 tsp salt and enough water to cover. Place a lid on the pot and heat over high until the water begins to boil. Boil the potatoes until very tender (about 7-10 minutes). Drain the potatoes in the colander and rinse briefly with hot water again to remove excess starch.</t>
-  </si>
-  <si>
-    <t>While the potatoes are draining, return the pot to the stove and add the butter and milk. Heat over low until the butter has melted and the milk is hot. Return the cooked potatoes to the pot, turn the heat off, and mash until smooth. Season with salt and pepper to taste.</t>
-  </si>
-  <si>
-    <t>Meanwhile, make the Creamy Dijon Dressing. Combine all the ingredients (olive oil, Dijon, mayonnaise, red wine vinegar, salt, pepper, sugar, garlic powder) in a small bowl or jar and whisk until combined. Set the dressing aside.</t>
-  </si>
-  <si>
-    <t>Preheat the oven to 425ºF. Remove any wilted or damaged leaves from the Brussels sprouts and slice them in half. Slice the sausage into 1/2-inch wide medallions.</t>
-  </si>
-  <si>
-    <t>Add both the Brussels sprouts and sausage to a large baking dish and drizzle 2 Tbsp olive oil over top. Toss the Brussels sprouts and sausage in the oil until everything is well coated and the baking sheet has a good layer of oil on its surface as well. Roast the Brussels sprouts and sausage in the hot oven for 20-25 minutes, or until they are well browned, stirring once half way through. Season with a pinch of salt after cooking.</t>
-  </si>
-  <si>
-    <t>To build the bowls, add about 1 cup of mashed potatoes to each bowl, then add 1/4 of the roasted Brussels sprouts and sausage to each bowl. Drizzle a couple spoonfuls of the creamy Dijon dressing over top just before serving.</t>
+    <t>1. Peel and cube the potatoes into 1-inch pieces. Rinse them well in a colander, then transfer to a pot and add 1/2 tsp salt and enough water to cover. Place a lid on the pot and heat over high until the water begins to boil. Boil the potatoes until very tender (about 7-10 minutes). Drain the potatoes in the colander and rinse briefly with hot water again to remove excess starch.</t>
+  </si>
+  <si>
+    <t>2. While the potatoes are draining, return the pot to the stove and add the butter and milk. Heat over low until the butter has melted and the milk is hot. Return the cooked potatoes to the pot, turn the heat off, and mash until smooth. Season with salt and pepper to taste.</t>
+  </si>
+  <si>
+    <t>3. Meanwhile, make the Creamy Dijon Dressing. Combine all the ingredients (olive oil, Dijon, mayonnaise, red wine vinegar, salt, pepper, sugar, garlic powder) in a small bowl or jar and whisk until combined. Set the dressing aside.</t>
+  </si>
+  <si>
+    <t>4. Preheat the oven to 425ºF. Remove any wilted or damaged leaves from the Brussels sprouts and slice them in half. Slice the sausage into 1/2-inch wide medallions.</t>
+  </si>
+  <si>
+    <t>5. Add both the Brussels sprouts and sausage to a large baking dish and drizzle 2 Tbsp olive oil over top. Toss the Brussels sprouts and sausage in the oil until everything is well coated and the baking sheet has a good layer of oil on its surface as well. Roast the Brussels sprouts and sausage in the hot oven for 20-25 minutes, or until they are well browned, stirring once half way through. Season with a pinch of salt after cooking.</t>
+  </si>
+  <si>
+    <t>6. To build the bowls, add about 1 cup of mashed potatoes to each bowl, then add 1/4 of the roasted Brussels sprouts and sausage to each bowl. Drizzle a couple spoonfuls of the creamy Dijon dressing over top just before serving.</t>
   </si>
   <si>
     <t>Chicken Adobo Meal Prep</t>
@@ -1393,19 +1393,19 @@
     <t>1 lb. frozen broccoli florets ($2.26)</t>
   </si>
   <si>
-    <t>Begin by mixing together the sesame sauce. In a medium bowl, stir together the soy sauce, 2 Tbsp water, sesame oil, brown sugar, rice vinegar, grated ginger, minced garlic, sesame seeds, and cornstarch until the cornstarch is dissolved. Set the sauce aside.</t>
-  </si>
-  <si>
-    <t>Cut the brick of tempeh into 8 squares, then cut each square diagonally into a triangle. Turn each triangle on its side and slice it in half so you have two thinner triangles. To achieve the proper tempeh to sauce ratio, you don't want thick pieces.</t>
-  </si>
-  <si>
-    <t>Place the tempeh in a large skillet and add 1/2 cup water. Place the skillet over medium-high heat and let the tempeh simmer until all of the water evaporates (about 5-8 minutes). Flip the tempeh a couple times as it simmers.</t>
-  </si>
-  <si>
-    <t>Once the water has evaporated, turn the heat down to medium and pour in the sesame sauce. The skillet will still be quite hot, so the sauce may begin to thicken immediately. Stir the tempeh in the sauce until the sauce has thickened (1-2 minutes), then remove it from the heat immediately to prevent further evaporation and thickening.</t>
-  </si>
-  <si>
-    <t>To build the bowls, place one cup of rice in each dish, top with 1/4 of the sesame tempeh, 1/4 of the broccoli florets, and a sprinkle of green onion.</t>
+    <t>1. Begin by mixing together the sesame sauce. In a medium bowl, stir together the soy sauce, 2 Tbsp water, sesame oil, brown sugar, rice vinegar, grated ginger, minced garlic, sesame seeds, and cornstarch until the cornstarch is dissolved. Set the sauce aside.</t>
+  </si>
+  <si>
+    <t>2. Cut the brick of tempeh into 8 squares, then cut each square diagonally into a triangle. Turn each triangle on its side and slice it in half so you have two thinner triangles. To achieve the proper tempeh to sauce ratio, you don't want thick pieces.</t>
+  </si>
+  <si>
+    <t>3. Place the tempeh in a large skillet and add 1/2 cup water. Place the skillet over medium-high heat and let the tempeh simmer until all of the water evaporates (about 5-8 minutes). Flip the tempeh a couple times as it simmers.</t>
+  </si>
+  <si>
+    <t>4. Once the water has evaporated, turn the heat down to medium and pour in the sesame sauce. The skillet will still be quite hot, so the sauce may begin to thicken immediately. Stir the tempeh in the sauce until the sauce has thickened (1-2 minutes), then remove it from the heat immediately to prevent further evaporation and thickening.</t>
+  </si>
+  <si>
+    <t>5. To build the bowls, place one cup of rice in each dish, top with 1/4 of the sesame tempeh, 1/4 of the broccoli florets, and a sprinkle of green onion.</t>
   </si>
   <si>
     <t>Pressure Cooker Chicken Meal Prep</t>
@@ -1450,28 +1450,28 @@
     <t>freshly cracked pepper ($0.02)</t>
   </si>
   <si>
-    <t>Preheat the oven to 400ºF. Wash the mushrooms and cut them in half if they are large.</t>
-  </si>
-  <si>
-    <t>In a small dish, stir together the olive oil, balsamic vinegar, brown sugar, soy sauce, minced garlic, and thyme. Place the mushrooms in a casserole dish big enough to allow them to be in a single layer. Pour the balsamic marinade over top and stir until the mushrooms are coated.</t>
-  </si>
-  <si>
-    <t>Transfer the the mushrooms to the preheated oven and roast for 45 minutes, giving them a stir every 15 minutes. After 45 minutes the mushrooms should be tender and there should be a nice sauce in the bottom of the dish.</t>
-  </si>
-  <si>
-    <t>Meanwhile, prepare the mashed potatoes. Peel and dice the potatoes into one-inch cubes. Rinse the cubes well in a colander, then place them in a large pot, add 1/2 tsp salt, and cover with cool water. Place a lid on the pot, bring it up to a boil. Boil the potatoes until they are very tender (about 7-10 minutes).</t>
-  </si>
-  <si>
-    <t>Once the potatoes are very tender, drain them in the colander and rinse them briefly with hot water. Let the potatoes drain in the colander as you prepare the kale.</t>
-  </si>
-  <si>
-    <t>To the pot used to boil the potatoes, add the chopped kale, 1 Tbsp olive oil, and 2 Tbsp water. Sauté over medium heat just until wilted (3-5 minutes), then remove the kale from the pot.</t>
-  </si>
-  <si>
-    <t>Return the drained potatoes to the pot along with the sour cream, milk, dried parsley, oregano, basil, garlic powder, onion powder, 1/4 tsp salt, and some freshly cracked pepper. Mash the potatoes until smooth, then taste and add more salt if needed. Stir in the sautéed kale.</t>
-  </si>
-  <si>
-    <t>To make the bowls, add 1/4 of the herby kale mashed potatoes to each bowl, then top with 1/4 of the balsamic roasted mushrooms. Drizzle a spoonful or two of the juices from the bottom of the casserole dish over the mushrooms and mashed potatoes.</t>
+    <t>1. Preheat the oven to 400ºF. Wash the mushrooms and cut them in half if they are large.</t>
+  </si>
+  <si>
+    <t>2. In a small dish, stir together the olive oil, balsamic vinegar, brown sugar, soy sauce, minced garlic, and thyme. Place the mushrooms in a casserole dish big enough to allow them to be in a single layer. Pour the balsamic marinade over top and stir until the mushrooms are coated.</t>
+  </si>
+  <si>
+    <t>3. Transfer the the mushrooms to the preheated oven and roast for 45 minutes, giving them a stir every 15 minutes. After 45 minutes the mushrooms should be tender and there should be a nice sauce in the bottom of the dish.</t>
+  </si>
+  <si>
+    <t>4. Meanwhile, prepare the mashed potatoes. Peel and dice the potatoes into one-inch cubes. Rinse the cubes well in a colander, then place them in a large pot, add 1/2 tsp salt, and cover with cool water. Place a lid on the pot, bring it up to a boil. Boil the potatoes until they are very tender (about 7-10 minutes).</t>
+  </si>
+  <si>
+    <t>5. Once the potatoes are very tender, drain them in the colander and rinse them briefly with hot water. Let the potatoes drain in the colander as you prepare the kale.</t>
+  </si>
+  <si>
+    <t>6. To the pot used to boil the potatoes, add the chopped kale, 1 Tbsp olive oil, and 2 Tbsp water. Sauté over medium heat just until wilted (3-5 minutes), then remove the kale from the pot.</t>
+  </si>
+  <si>
+    <t>7. Return the drained potatoes to the pot along with the sour cream, milk, dried parsley, oregano, basil, garlic powder, onion powder, 1/4 tsp salt, and some freshly cracked pepper. Mash the potatoes until smooth, then taste and add more salt if needed. Stir in the sautéed kale.</t>
+  </si>
+  <si>
+    <t>8. To make the bowls, add 1/4 of the herby kale mashed potatoes to each bowl, then top with 1/4 of the balsamic roasted mushrooms. Drizzle a spoonful or two of the juices from the bottom of the casserole dish over the mushrooms and mashed potatoes.</t>
   </si>
   <si>
     <t>Garlic Parmesan Kale Pasta Meal Prep</t>
@@ -1522,22 +1522,22 @@
     <t>1 green onion, sliced ($0.10)</t>
   </si>
   <si>
-    <t>Preheat the oven to 400ºF. To make the Chipotle Lime crema, zest and juice the lime. Combine the sour cream with 1 Tbsp lime juice, about 1/2 tsp lime zest, the chipotle powder, garlic powder, and 1/4 tsp salt. Stir the ingredients together, then refrigerate until ready to use.</t>
-  </si>
-  <si>
-    <t>Wash then dry the sweet potatoes. Use a fork to prick the skins several times all over. Slice the sweet potatoes in half lengthwise, then use 1 Tbsp olive oil to coat the surface of all four pieces.</t>
-  </si>
-  <si>
-    <t>Season the cut sides of the sweet potatoes with Jerk Seasoning, or whatever seasoning salt you prefer. Coat the surface of a baking sheet with a thin layer of oil, then place the sweet potatoes cut side down. Bake the sweet potatoes for 30 minutes, or until they are soft, you can see the juices oozing out from underneath, and the skins look a little wrinkly.</t>
-  </si>
-  <si>
-    <t>While the sweet potatoes are baking, Mince a clove of garlic, dice the red bell pepper, slice the jalapeño and green onion.</t>
-  </si>
-  <si>
-    <t>Add the minced garlic to a skillet with the remaining 1 Tbsp olive oil. Sauté over medium heat for one minute, then add the diced bell pepper. Sauté the pepper for 2-3 minutes, or just until it begins to soften, then add the black beans, cumin, salt, and green onion. Stir and cook until the beans are heated through.</t>
-  </si>
-  <si>
-    <t>When the sweet potatoes come out of the oven, use a spatula to flip them over. Mash the flesh of the sweet potatoes with a fork, then pile the bean and pepper mixture over top. Add the sliced jalapeño and a dollop (or drizzle) of the chipotle lime crema to each, then serve.</t>
+    <t>1. Preheat the oven to 400ºF. To make the Chipotle Lime crema, zest and juice the lime. Combine the sour cream with 1 Tbsp lime juice, about 1/2 tsp lime zest, the chipotle powder, garlic powder, and 1/4 tsp salt. Stir the ingredients together, then refrigerate until ready to use.</t>
+  </si>
+  <si>
+    <t>2. Wash then dry the sweet potatoes. Use a fork to prick the skins several times all over. Slice the sweet potatoes in half lengthwise, then use 1 Tbsp olive oil to coat the surface of all four pieces.</t>
+  </si>
+  <si>
+    <t>3. Season the cut sides of the sweet potatoes with Jerk Seasoning, or whatever seasoning salt you prefer. Coat the surface of a baking sheet with a thin layer of oil, then place the sweet potatoes cut side down. Bake the sweet potatoes for 30 minutes, or until they are soft, you can see the juices oozing out from underneath, and the skins look a little wrinkly.</t>
+  </si>
+  <si>
+    <t>4. While the sweet potatoes are baking, Mince a clove of garlic, dice the red bell pepper, slice the jalapeño and green onion.</t>
+  </si>
+  <si>
+    <t>5. Add the minced garlic to a skillet with the remaining 1 Tbsp olive oil. Sauté over medium heat for one minute, then add the diced bell pepper. Sauté the pepper for 2-3 minutes, or just until it begins to soften, then add the black beans, cumin, salt, and green onion. Stir and cook until the beans are heated through.</t>
+  </si>
+  <si>
+    <t>6. When the sweet potatoes come out of the oven, use a spatula to flip them over. Mash the flesh of the sweet potatoes with a fork, then pile the bean and pepper mixture over top. Add the sliced jalapeño and a dollop (or drizzle) of the chipotle lime crema to each, then serve.</t>
   </si>
   <si>
     <t>Make Ahead Seeded Oats</t>
@@ -1570,13 +1570,13 @@
     <t>3 Tbsp butter ($0.39)</t>
   </si>
   <si>
-    <t>Peel and cube the potatoes (about 1-inch cubes). Place them in the Instant Pot along with the chicken broth and seasoning of your choice (see notes for what I used).</t>
-  </si>
-  <si>
-    <t>Close the Instant Pot lid, close the steam valve, and select the "Steam" option. The machine will auto-set to 10 minutes. Let the machine come up to pressure, cook for 10 minutes, then naturally release pressure.</t>
-  </si>
-  <si>
-    <t>Once the pressure has released, open the pot and mash the potatoes with a potato masher. Add the butter and stir or mash into the potatoes until melted. Taste and adjust the salt or seasoning as you see fit.</t>
+    <t>1. Peel and cube the potatoes (about 1-inch cubes). Place them in the Instant Pot along with the chicken broth and seasoning of your choice (see notes for what I used).</t>
+  </si>
+  <si>
+    <t>2. Close the Instant Pot lid, close the steam valve, and select the "Steam" option. The machine will auto-set to 10 minutes. Let the machine come up to pressure, cook for 10 minutes, then naturally release pressure.</t>
+  </si>
+  <si>
+    <t>3. Once the pressure has released, open the pot and mash the potatoes with a potato masher. Add the butter and stir or mash into the potatoes until melted. Taste and adjust the salt or seasoning as you see fit.</t>
   </si>
   <si>
     <t>Moroccan Lentil and Vegetable Stew Meal Prep</t>
@@ -1624,16 +1624,16 @@
     <t>4 Tbsp ranch dressing ($0.31)</t>
   </si>
   <si>
-    <t>Cut the block of tempeh into 32 thin triangles. For the block I used, I first cut it into 8 equal-sized squares, then cut each square into two triangles, then cut the thickness of each triangle in half to make the pieces thinner. Add the tempeh triangles to a large non-stick skillet.</t>
-  </si>
-  <si>
-    <t>Make the sweet and spicy marinade by combining the water, garlic powder, smoked paprika, cayenne, salt, brown sugar, and olive oil. Pour this mixture over the tempeh in the skillet. Turn the skillet on to medium-high and simmer the tempeh, stirring occasionally, until the liquid evaporates and the tempeh begins to brown just slightly (about 10 minutes). Remove the tempeh from the heat.</t>
-  </si>
-  <si>
-    <t>To make the polenta, combine the cornmeal, salt, and water in a medium sauce pot. Place the pot over medium-high heat and bring it up to a boil while whisking. Once it reaches a boil, turn the heat down to medium-low and continue to simmer 2-3 minutes more, or until the polenta has thickened. Remove the polenta from the heat and stir in the butter.</t>
-  </si>
-  <si>
-    <t>To build the bowls, start with 1 cup of the polenta, add 1/4 of the sweet and spicy tempeh triangles, 1/4 of the rinsed black beans, a pinch or two of shredded cheddar (about 1/2 oz.), 1/4 of the avocado, a sprinkle of green onions, and a light drizzle of ranch. Serve immediately, or refrigerate and reheat later.</t>
+    <t>1. Cut the block of tempeh into 32 thin triangles. For the block I used, I first cut it into 8 equal-sized squares, then cut each square into two triangles, then cut the thickness of each triangle in half to make the pieces thinner. Add the tempeh triangles to a large non-stick skillet.</t>
+  </si>
+  <si>
+    <t>2. Make the sweet and spicy marinade by combining the water, garlic powder, smoked paprika, cayenne, salt, brown sugar, and olive oil. Pour this mixture over the tempeh in the skillet. Turn the skillet on to medium-high and simmer the tempeh, stirring occasionally, until the liquid evaporates and the tempeh begins to brown just slightly (about 10 minutes). Remove the tempeh from the heat.</t>
+  </si>
+  <si>
+    <t>3. To make the polenta, combine the cornmeal, salt, and water in a medium sauce pot. Place the pot over medium-high heat and bring it up to a boil while whisking. Once it reaches a boil, turn the heat down to medium-low and continue to simmer 2-3 minutes more, or until the polenta has thickened. Remove the polenta from the heat and stir in the butter.</t>
+  </si>
+  <si>
+    <t>4. To build the bowls, start with 1 cup of the polenta, add 1/4 of the sweet and spicy tempeh triangles, 1/4 of the rinsed black beans, a pinch or two of shredded cheddar (about 1/2 oz.), 1/4 of the avocado, a sprinkle of green onions, and a light drizzle of ranch. Serve immediately, or refrigerate and reheat later.</t>
   </si>
   <si>
     <t>Maple Dijon Chicken Thigh Meal Prep</t>
@@ -1678,10 +1678,10 @@
     <t>handful fresh parsley, chopped ($0.25)</t>
   </si>
   <si>
-    <t>Add the ground beef to a skillet, along with the oregano, cumin, garlic powder, and salt. Cook and stir the beef over medium heat until fully browned and evenly combined with the spices.</t>
-  </si>
-  <si>
-    <t>To build the bowls, add 1 cup rice and 1/4 cup hummus to each bowl. Divide the remaining ingredients among the four bowls, or in any amount that you desire. Enjoy immediately or refrigerate until ready to eat.</t>
+    <t>1. Add the ground beef to a skillet, along with the oregano, cumin, garlic powder, and salt. Cook and stir the beef over medium heat until fully browned and evenly combined with the spices.</t>
+  </si>
+  <si>
+    <t>2. To build the bowls, add 1 cup rice and 1/4 cup hummus to each bowl. Divide the remaining ingredients among the four bowls, or in any amount that you desire. Enjoy immediately or refrigerate until ready to eat.</t>
   </si>
   <si>
     <t>Pesto Stuffed Shells Meal Prep</t>
@@ -1723,19 +1723,19 @@
     <t>1 lb. broccoli crown** (1.79)</t>
   </si>
   <si>
-    <t>Begin the coconut rice first. Add the jasmine rice, garlic, salt, coconut milk, and water to a sauce pot, then give it all a brief stir. Place a lid on the pot and bring it up to a boil over high heat. As soon as it reaches a full boil, turn the heat down to low and let it simmer for 15 minutes. After simmering for 15 minutes, turn the heat off and let it sit undisturbed, with the lid in place, for 5 minutes. Fluff the rice, and set it aside until ready to serve.</t>
-  </si>
-  <si>
-    <t>While the rice is cooking, prepare the steamed broccoli. Cut the broccoli crown into florets. Add one inch of water to a large pot, place a steaming basket in the pot, then place the broccoli crowns in the basket. Place a lid on the pot, then place it over medium high heat. Allow the water to come up to a boil, and steam the broccoli until it is bright green and tender (about 5 minutes). Remove the broccoli from the heat and set aside until ready to serve.</t>
-  </si>
-  <si>
-    <t>While the rice and broccoli are cooking, prepare the chicken stir fry. Dice the chicken into 1-inch pieces. Season with a pinch of salt. Heat 1 Tbsp cooking oil in a large skillet over medium-high heat. Once hot, add the chicken and stir and cook until the chicken is cooked through and slightly browned on the outside.</t>
-  </si>
-  <si>
-    <t>Drain the can of pineapple, then add the pineapple to the skillet along with the sweet chili sauce. Stir and heat the sauce and pineapple through (about 2 minutes).</t>
-  </si>
-  <si>
-    <t>To serve, place about 1 cup rice in each bowl, add 1/4 of the sweet chili chicken mixture, and 1/3 of the broccoli. Enjoy immediately, or refrigerate until ready to serve. Lasts about 4 days in the refrigerator.</t>
+    <t>1. Begin the coconut rice first. Add the jasmine rice, garlic, salt, coconut milk, and water to a sauce pot, then give it all a brief stir. Place a lid on the pot and bring it up to a boil over high heat. As soon as it reaches a full boil, turn the heat down to low and let it simmer for 15 minutes. After simmering for 15 minutes, turn the heat off and let it sit undisturbed, with the lid in place, for 5 minutes. Fluff the rice, and set it aside until ready to serve.</t>
+  </si>
+  <si>
+    <t>2. While the rice is cooking, prepare the steamed broccoli. Cut the broccoli crown into florets. Add one inch of water to a large pot, place a steaming basket in the pot, then place the broccoli crowns in the basket. Place a lid on the pot, then place it over medium high heat. Allow the water to come up to a boil, and steam the broccoli until it is bright green and tender (about 5 minutes). Remove the broccoli from the heat and set aside until ready to serve.</t>
+  </si>
+  <si>
+    <t>3. While the rice and broccoli are cooking, prepare the chicken stir fry. Dice the chicken into 1-inch pieces. Season with a pinch of salt. Heat 1 Tbsp cooking oil in a large skillet over medium-high heat. Once hot, add the chicken and stir and cook until the chicken is cooked through and slightly browned on the outside.</t>
+  </si>
+  <si>
+    <t>4. Drain the can of pineapple, then add the pineapple to the skillet along with the sweet chili sauce. Stir and heat the sauce and pineapple through (about 2 minutes).</t>
+  </si>
+  <si>
+    <t>5. To serve, place about 1 cup rice in each bowl, add 1/4 of the sweet chili chicken mixture, and 1/3 of the broccoli. Enjoy immediately, or refrigerate until ready to serve. Lasts about 4 days in the refrigerator.</t>
   </si>
   <si>
     <t>Sticky Ginger Soy Glazed Chicken Meal Prep</t>
@@ -1816,22 +1816,22 @@
     <t>1/2 cup salad dressing* ($0.71)</t>
   </si>
   <si>
-    <t>Cook the chicken first, to ensure it has time to cool before you build your salads. Warm chicken will cause the greens to wilt prematurely. Cover the chicken with plastic, then pound with a rolling pin until it an even thickness. This will help the breast cook evenly. Season both sides of the chicken breast with salt, pepper, and smoked paprika.</t>
-  </si>
-  <si>
-    <t>Heat 1 Tbsp cooking oil in a skillet over medium heat, then swirl to coat the surface of the skillet in oil. Add the chicken to the skillet and cook on each side for 5-7 minutes, or until it is well browned on the outside and cooked through. Transfer the chicken to a clean cutting board, let it rest for five minutes, then dice it into small pieces. Place the chopped chicken in a bowl and refrigerate while you prepare the rest of the ingredients.</t>
-  </si>
-  <si>
-    <t>Add one inch of water in a pot, place a lid on top, then bring to a boil over high heat. Place four large eggs in a steaming basket, and once the water is boiling, carefully lower the basket into the pot. Replace the lid on top and allow the eggs to steam for 12 minutes. After 12 minutes, transfer the steaming basket and eggs to a bowl full of ice water to cool.</t>
-  </si>
-  <si>
-    <t>Place four slices of bacon in a skillet and cook over medium heat until brown and crispy (I used the same skillet that was used for the chicken). Once fully browned, transfer to a paper towel covered plate to drain.</t>
-  </si>
-  <si>
-    <t>To build the salads:  Place 2 Tbsp dressing on the bottom of your container. Next, layer the chickpeas, tomatoes, and chopped chicken. Peel the eggs, slice or cut them into quarters, and add them to the dish. Crumble the bacon over top, followed by the cheese. Lastly, place a couple handfuls of fresh greens on top. Be sure not to pack it too tightly. Allowing air-flow will help keep the greens fresh.</t>
-  </si>
-  <si>
-    <t>The salads will keep about four days (depending on your specific ingredients, containers, and refrigerator environment). To serve, simply stir the salad or shake the closed container to distribute the dressing throughout.</t>
+    <t>1. Cook the chicken first, to ensure it has time to cool before you build your salads. Warm chicken will cause the greens to wilt prematurely. Cover the chicken with plastic, then pound with a rolling pin until it an even thickness. This will help the breast cook evenly. Season both sides of the chicken breast with salt, pepper, and smoked paprika.</t>
+  </si>
+  <si>
+    <t>2. Heat 1 Tbsp cooking oil in a skillet over medium heat, then swirl to coat the surface of the skillet in oil. Add the chicken to the skillet and cook on each side for 5-7 minutes, or until it is well browned on the outside and cooked through. Transfer the chicken to a clean cutting board, let it rest for five minutes, then dice it into small pieces. Place the chopped chicken in a bowl and refrigerate while you prepare the rest of the ingredients.</t>
+  </si>
+  <si>
+    <t>3. Add one inch of water in a pot, place a lid on top, then bring to a boil over high heat. Place four large eggs in a steaming basket, and once the water is boiling, carefully lower the basket into the pot. Replace the lid on top and allow the eggs to steam for 12 minutes. After 12 minutes, transfer the steaming basket and eggs to a bowl full of ice water to cool.</t>
+  </si>
+  <si>
+    <t>4. Place four slices of bacon in a skillet and cook over medium heat until brown and crispy (I used the same skillet that was used for the chicken). Once fully browned, transfer to a paper towel covered plate to drain.</t>
+  </si>
+  <si>
+    <t>5. To build the salads:  Place 2 Tbsp dressing on the bottom of your container. Next, layer the chickpeas, tomatoes, and chopped chicken. Peel the eggs, slice or cut them into quarters, and add them to the dish. Crumble the bacon over top, followed by the cheese. Lastly, place a couple handfuls of fresh greens on top. Be sure not to pack it too tightly. Allowing air-flow will help keep the greens fresh.</t>
+  </si>
+  <si>
+    <t>6. The salads will keep about four days (depending on your specific ingredients, containers, and refrigerator environment). To serve, simply stir the salad or shake the closed container to distribute the dressing throughout.</t>
   </si>
   <si>
     <t>Roasted Red Pepper Hummus Wrap</t>
